--- a/inst/extdata/iron&steel output by province.xlsx
+++ b/inst/extdata/iron&steel output by province.xlsx
@@ -1,21 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60509F47-3870-4851-AA3F-4925032C102D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB9823C-8169-43AE-B8F4-796FB43B66A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Anhui_Output_Pig Iron_YTD" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -622,7 +635,7 @@
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -1002,13 +1015,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="118" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118">
+    <row r="1" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:118">
+    <row r="2" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1720,7 +1733,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:118">
+    <row r="3" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:118">
+    <row r="4" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -2432,7 +2445,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:118">
+    <row r="5" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>97</v>
       </c>
@@ -2788,7 +2801,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:118">
+    <row r="6" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -3144,7 +3157,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:118">
+    <row r="7" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -3500,7 +3513,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="8" spans="1:118">
+    <row r="8" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>38898</v>
       </c>
@@ -3740,7 +3753,7 @@
       </c>
       <c r="DN8" s="3"/>
     </row>
-    <row r="9" spans="1:118">
+    <row r="9" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>38929</v>
       </c>
@@ -3978,7 +3991,7 @@
       </c>
       <c r="DN9" s="3"/>
     </row>
-    <row r="10" spans="1:118">
+    <row r="10" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>38960</v>
       </c>
@@ -4216,7 +4229,7 @@
       </c>
       <c r="DN10" s="3"/>
     </row>
-    <row r="11" spans="1:118">
+    <row r="11" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>38990</v>
       </c>
@@ -4454,7 +4467,7 @@
       </c>
       <c r="DN11" s="3"/>
     </row>
-    <row r="12" spans="1:118">
+    <row r="12" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>39021</v>
       </c>
@@ -4692,7 +4705,7 @@
       </c>
       <c r="DN12" s="3"/>
     </row>
-    <row r="13" spans="1:118">
+    <row r="13" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>39051</v>
       </c>
@@ -4930,7 +4943,7 @@
       </c>
       <c r="DN13" s="3"/>
     </row>
-    <row r="14" spans="1:118">
+    <row r="14" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>39082</v>
       </c>
@@ -5168,7 +5181,7 @@
       </c>
       <c r="DN14" s="3"/>
     </row>
-    <row r="15" spans="1:118">
+    <row r="15" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>39141</v>
       </c>
@@ -5406,7 +5419,7 @@
       </c>
       <c r="DN15" s="3"/>
     </row>
-    <row r="16" spans="1:118">
+    <row r="16" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>39172</v>
       </c>
@@ -5644,7 +5657,7 @@
       </c>
       <c r="DN16" s="3"/>
     </row>
-    <row r="17" spans="1:118">
+    <row r="17" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>39202</v>
       </c>
@@ -5994,7 +6007,7 @@
       </c>
       <c r="DN17" s="3"/>
     </row>
-    <row r="18" spans="1:118">
+    <row r="18" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>39233</v>
       </c>
@@ -6344,7 +6357,7 @@
       </c>
       <c r="DN18" s="3"/>
     </row>
-    <row r="19" spans="1:118">
+    <row r="19" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>39263</v>
       </c>
@@ -6694,7 +6707,7 @@
       </c>
       <c r="DN19" s="3"/>
     </row>
-    <row r="20" spans="1:118">
+    <row r="20" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>39294</v>
       </c>
@@ -7044,7 +7057,7 @@
       </c>
       <c r="DN20" s="3"/>
     </row>
-    <row r="21" spans="1:118">
+    <row r="21" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>39325</v>
       </c>
@@ -7394,7 +7407,7 @@
       </c>
       <c r="DN21" s="3"/>
     </row>
-    <row r="22" spans="1:118">
+    <row r="22" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>39355</v>
       </c>
@@ -7746,7 +7759,7 @@
       </c>
       <c r="DN22" s="3"/>
     </row>
-    <row r="23" spans="1:118">
+    <row r="23" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>39386</v>
       </c>
@@ -8098,7 +8111,7 @@
       </c>
       <c r="DN23" s="3"/>
     </row>
-    <row r="24" spans="1:118">
+    <row r="24" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>39416</v>
       </c>
@@ -8450,7 +8463,7 @@
       </c>
       <c r="DN24" s="3"/>
     </row>
-    <row r="25" spans="1:118">
+    <row r="25" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>39447</v>
       </c>
@@ -8802,7 +8815,7 @@
       </c>
       <c r="DN25" s="3"/>
     </row>
-    <row r="26" spans="1:118">
+    <row r="26" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>39478</v>
       </c>
@@ -8926,7 +8939,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="27" spans="1:118">
+    <row r="27" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>39507</v>
       </c>
@@ -9278,7 +9291,7 @@
         <v>3275</v>
       </c>
     </row>
-    <row r="28" spans="1:118">
+    <row r="28" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>39538</v>
       </c>
@@ -9630,7 +9643,7 @@
         <v>5728</v>
       </c>
     </row>
-    <row r="29" spans="1:118">
+    <row r="29" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>39568</v>
       </c>
@@ -9982,7 +9995,7 @@
         <v>7625</v>
       </c>
     </row>
-    <row r="30" spans="1:118">
+    <row r="30" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>39599</v>
       </c>
@@ -10334,7 +10347,7 @@
         <v>9625</v>
       </c>
     </row>
-    <row r="31" spans="1:118">
+    <row r="31" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>39629</v>
       </c>
@@ -10686,7 +10699,7 @@
         <v>11560</v>
       </c>
     </row>
-    <row r="32" spans="1:118">
+    <row r="32" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>39660</v>
       </c>
@@ -11038,7 +11051,7 @@
         <v>13560</v>
       </c>
     </row>
-    <row r="33" spans="1:118">
+    <row r="33" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>39691</v>
       </c>
@@ -11390,7 +11403,7 @@
         <v>13999</v>
       </c>
     </row>
-    <row r="34" spans="1:118">
+    <row r="34" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>39721</v>
       </c>
@@ -11742,7 +11755,7 @@
         <v>15489</v>
       </c>
     </row>
-    <row r="35" spans="1:118">
+    <row r="35" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>39752</v>
       </c>
@@ -12094,7 +12107,7 @@
         <v>17029</v>
       </c>
     </row>
-    <row r="36" spans="1:118">
+    <row r="36" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>39782</v>
       </c>
@@ -12446,7 +12459,7 @@
         <v>18519</v>
       </c>
     </row>
-    <row r="37" spans="1:118">
+    <row r="37" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>39813</v>
       </c>
@@ -12796,7 +12809,7 @@
       </c>
       <c r="DN37" s="3"/>
     </row>
-    <row r="38" spans="1:118">
+    <row r="38" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>39844</v>
       </c>
@@ -12920,7 +12933,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="39" spans="1:118">
+    <row r="39" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>39872</v>
       </c>
@@ -13272,7 +13285,7 @@
         <v>2800</v>
       </c>
     </row>
-    <row r="40" spans="1:118">
+    <row r="40" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39903</v>
       </c>
@@ -13624,7 +13637,7 @@
         <v>4200</v>
       </c>
     </row>
-    <row r="41" spans="1:118">
+    <row r="41" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39933</v>
       </c>
@@ -13976,7 +13989,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="42" spans="1:118">
+    <row r="42" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>39964</v>
       </c>
@@ -14328,7 +14341,7 @@
         <v>5470</v>
       </c>
     </row>
-    <row r="43" spans="1:118">
+    <row r="43" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>39994</v>
       </c>
@@ -14680,7 +14693,7 @@
         <v>6585</v>
       </c>
     </row>
-    <row r="44" spans="1:118">
+    <row r="44" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>40025</v>
       </c>
@@ -15032,7 +15045,7 @@
         <v>8141</v>
       </c>
     </row>
-    <row r="45" spans="1:118">
+    <row r="45" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>40056</v>
       </c>
@@ -15384,7 +15397,7 @@
         <v>9381</v>
       </c>
     </row>
-    <row r="46" spans="1:118">
+    <row r="46" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>40086</v>
       </c>
@@ -15736,7 +15749,7 @@
         <v>10581</v>
       </c>
     </row>
-    <row r="47" spans="1:118">
+    <row r="47" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>40117</v>
       </c>
@@ -16088,7 +16101,7 @@
         <v>11821</v>
       </c>
     </row>
-    <row r="48" spans="1:118">
+    <row r="48" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>40147</v>
       </c>
@@ -16440,7 +16453,7 @@
         <v>14127</v>
       </c>
     </row>
-    <row r="49" spans="1:118">
+    <row r="49" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>40178</v>
       </c>
@@ -16794,7 +16807,7 @@
         <v>15747</v>
       </c>
     </row>
-    <row r="50" spans="1:118">
+    <row r="50" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>40209</v>
       </c>
@@ -16918,7 +16931,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="51" spans="1:118">
+    <row r="51" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>40237</v>
       </c>
@@ -17268,7 +17281,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="52" spans="1:118">
+    <row r="52" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>40268</v>
       </c>
@@ -17618,7 +17631,7 @@
         <v>4965</v>
       </c>
     </row>
-    <row r="53" spans="1:118">
+    <row r="53" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>40298</v>
       </c>
@@ -17972,7 +17985,7 @@
         <v>11311</v>
       </c>
     </row>
-    <row r="54" spans="1:118">
+    <row r="54" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>40329</v>
       </c>
@@ -18326,7 +18339,7 @@
         <v>7549</v>
       </c>
     </row>
-    <row r="55" spans="1:118">
+    <row r="55" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>40359</v>
       </c>
@@ -18676,7 +18689,7 @@
         <v>9069</v>
       </c>
     </row>
-    <row r="56" spans="1:118">
+    <row r="56" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>40390</v>
       </c>
@@ -19026,7 +19039,7 @@
         <v>10639</v>
       </c>
     </row>
-    <row r="57" spans="1:118">
+    <row r="57" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>40421</v>
       </c>
@@ -19376,7 +19389,7 @@
         <v>12209</v>
       </c>
     </row>
-    <row r="58" spans="1:118">
+    <row r="58" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>40451</v>
       </c>
@@ -19726,7 +19739,7 @@
         <v>14572</v>
       </c>
     </row>
-    <row r="59" spans="1:118">
+    <row r="59" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>40482</v>
       </c>
@@ -20076,7 +20089,7 @@
         <v>16412</v>
       </c>
     </row>
-    <row r="60" spans="1:118">
+    <row r="60" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>40512</v>
       </c>
@@ -20426,7 +20439,7 @@
         <v>17782</v>
       </c>
     </row>
-    <row r="61" spans="1:118">
+    <row r="61" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>40543</v>
       </c>
@@ -20776,7 +20789,7 @@
         <v>19641</v>
       </c>
     </row>
-    <row r="62" spans="1:118">
+    <row r="62" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>40574</v>
       </c>
@@ -20900,7 +20913,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="63" spans="1:118">
+    <row r="63" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>40602</v>
       </c>
@@ -21252,7 +21265,7 @@
         <v>3350</v>
       </c>
     </row>
-    <row r="64" spans="1:118">
+    <row r="64" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>40633</v>
       </c>
@@ -21604,7 +21617,7 @@
         <v>5120</v>
       </c>
     </row>
-    <row r="65" spans="1:118">
+    <row r="65" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>40663</v>
       </c>
@@ -21958,7 +21971,7 @@
         <v>6907</v>
       </c>
     </row>
-    <row r="66" spans="1:118">
+    <row r="66" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>40694</v>
       </c>
@@ -22312,7 +22325,7 @@
         <v>9081</v>
       </c>
     </row>
-    <row r="67" spans="1:118">
+    <row r="67" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>40724</v>
       </c>
@@ -22666,7 +22679,7 @@
         <v>10701</v>
       </c>
     </row>
-    <row r="68" spans="1:118">
+    <row r="68" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>40755</v>
       </c>
@@ -23018,7 +23031,7 @@
         <v>13464</v>
       </c>
     </row>
-    <row r="69" spans="1:118">
+    <row r="69" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>40786</v>
       </c>
@@ -23372,7 +23385,7 @@
         <v>15472</v>
       </c>
     </row>
-    <row r="70" spans="1:118">
+    <row r="70" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>40816</v>
       </c>
@@ -23724,7 +23737,7 @@
         <v>17023</v>
       </c>
     </row>
-    <row r="71" spans="1:118">
+    <row r="71" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>40847</v>
       </c>
@@ -24076,7 +24089,7 @@
         <v>18611</v>
       </c>
     </row>
-    <row r="72" spans="1:118">
+    <row r="72" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>40877</v>
       </c>
@@ -24428,7 +24441,7 @@
         <v>20501</v>
       </c>
     </row>
-    <row r="73" spans="1:118">
+    <row r="73" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>40908</v>
       </c>
@@ -24780,7 +24793,7 @@
         <v>22660</v>
       </c>
     </row>
-    <row r="74" spans="1:118">
+    <row r="74" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>40939</v>
       </c>
@@ -24904,7 +24917,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="75" spans="1:118">
+    <row r="75" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>40968</v>
       </c>
@@ -25256,7 +25269,7 @@
         <v>3680</v>
       </c>
     </row>
-    <row r="76" spans="1:118">
+    <row r="76" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>40999</v>
       </c>
@@ -25608,7 +25621,7 @@
         <v>5730</v>
       </c>
     </row>
-    <row r="77" spans="1:118">
+    <row r="77" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>41029</v>
       </c>
@@ -25960,7 +25973,7 @@
         <v>7061</v>
       </c>
     </row>
-    <row r="78" spans="1:118">
+    <row r="78" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>41060</v>
       </c>
@@ -26312,7 +26325,7 @@
         <v>8884</v>
       </c>
     </row>
-    <row r="79" spans="1:118">
+    <row r="79" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>41090</v>
       </c>
@@ -26664,7 +26677,7 @@
         <v>10569</v>
       </c>
     </row>
-    <row r="80" spans="1:118">
+    <row r="80" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>41121</v>
       </c>
@@ -27016,7 +27029,7 @@
         <v>12476</v>
       </c>
     </row>
-    <row r="81" spans="1:118">
+    <row r="81" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>41152</v>
       </c>
@@ -27368,7 +27381,7 @@
         <v>14326</v>
       </c>
     </row>
-    <row r="82" spans="1:118">
+    <row r="82" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>41182</v>
       </c>
@@ -27720,7 +27733,7 @@
         <v>15888</v>
       </c>
     </row>
-    <row r="83" spans="1:118">
+    <row r="83" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>41213</v>
       </c>
@@ -28072,7 +28085,7 @@
         <v>17037</v>
       </c>
     </row>
-    <row r="84" spans="1:118">
+    <row r="84" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>41243</v>
       </c>
@@ -28424,7 +28437,7 @@
         <v>18704</v>
       </c>
     </row>
-    <row r="85" spans="1:118">
+    <row r="85" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>41274</v>
       </c>
@@ -28776,7 +28789,7 @@
         <v>20660</v>
       </c>
     </row>
-    <row r="86" spans="1:118">
+    <row r="86" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>41305</v>
       </c>
@@ -28900,7 +28913,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="87" spans="1:118">
+    <row r="87" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>41333</v>
       </c>
@@ -29252,7 +29265,7 @@
         <v>3370</v>
       </c>
     </row>
-    <row r="88" spans="1:118">
+    <row r="88" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>41364</v>
       </c>
@@ -29604,7 +29617,7 @@
         <v>5087</v>
       </c>
     </row>
-    <row r="89" spans="1:118">
+    <row r="89" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>41394</v>
       </c>
@@ -29956,7 +29969,7 @@
         <v>6456</v>
       </c>
     </row>
-    <row r="90" spans="1:118">
+    <row r="90" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>41425</v>
       </c>
@@ -30308,7 +30321,7 @@
         <v>9434</v>
       </c>
     </row>
-    <row r="91" spans="1:118">
+    <row r="91" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>41455</v>
       </c>
@@ -30660,7 +30673,7 @@
         <v>11571</v>
       </c>
     </row>
-    <row r="92" spans="1:118">
+    <row r="92" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>41486</v>
       </c>
@@ -31012,7 +31025,7 @@
         <v>13526</v>
       </c>
     </row>
-    <row r="93" spans="1:118">
+    <row r="93" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>41517</v>
       </c>
@@ -31364,7 +31377,7 @@
         <v>15034</v>
       </c>
     </row>
-    <row r="94" spans="1:118">
+    <row r="94" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>41547</v>
       </c>
@@ -31716,7 +31729,7 @@
         <v>16977</v>
       </c>
     </row>
-    <row r="95" spans="1:118">
+    <row r="95" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>41578</v>
       </c>
@@ -32068,7 +32081,7 @@
         <v>18417</v>
       </c>
     </row>
-    <row r="96" spans="1:118">
+    <row r="96" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>41608</v>
       </c>
@@ -32420,7 +32433,7 @@
         <v>20364</v>
       </c>
     </row>
-    <row r="97" spans="1:118">
+    <row r="97" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>41639</v>
       </c>
@@ -32772,7 +32785,7 @@
         <v>22320</v>
       </c>
     </row>
-    <row r="98" spans="1:118">
+    <row r="98" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>41670</v>
       </c>
@@ -32896,7 +32909,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="99" spans="1:118">
+    <row r="99" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>41698</v>
       </c>
@@ -33250,7 +33263,7 @@
         <v>3415</v>
       </c>
     </row>
-    <row r="100" spans="1:118">
+    <row r="100" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>41729</v>
       </c>
@@ -33604,7 +33617,7 @@
         <v>5509</v>
       </c>
     </row>
-    <row r="101" spans="1:118">
+    <row r="101" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>41759</v>
       </c>
@@ -33958,7 +33971,7 @@
         <v>7399</v>
       </c>
     </row>
-    <row r="102" spans="1:118">
+    <row r="102" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>41790</v>
       </c>
@@ -34312,7 +34325,7 @@
         <v>9111</v>
       </c>
     </row>
-    <row r="103" spans="1:118">
+    <row r="103" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>41820</v>
       </c>
@@ -34666,7 +34679,7 @@
         <v>11003</v>
       </c>
     </row>
-    <row r="104" spans="1:118">
+    <row r="104" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>41851</v>
       </c>
@@ -35020,7 +35033,7 @@
         <v>13045</v>
       </c>
     </row>
-    <row r="105" spans="1:118">
+    <row r="105" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>41882</v>
       </c>
@@ -35374,7 +35387,7 @@
         <v>15011</v>
       </c>
     </row>
-    <row r="106" spans="1:118">
+    <row r="106" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>41912</v>
       </c>
@@ -35728,7 +35741,7 @@
         <v>16891</v>
       </c>
     </row>
-    <row r="107" spans="1:118">
+    <row r="107" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>41943</v>
       </c>
@@ -36082,7 +36095,7 @@
         <v>18908</v>
       </c>
     </row>
-    <row r="108" spans="1:118">
+    <row r="108" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>41973</v>
       </c>
@@ -36436,7 +36449,7 @@
         <v>20782</v>
       </c>
     </row>
-    <row r="109" spans="1:118">
+    <row r="109" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>42004</v>
       </c>
@@ -36790,7 +36803,7 @@
         <v>23250</v>
       </c>
     </row>
-    <row r="110" spans="1:118">
+    <row r="110" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>42035</v>
       </c>
@@ -36914,7 +36927,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="111" spans="1:118">
+    <row r="111" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>42063</v>
       </c>
@@ -37268,7 +37281,7 @@
         <v>3764</v>
       </c>
     </row>
-    <row r="112" spans="1:118">
+    <row r="112" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>42094</v>
       </c>
@@ -37622,7 +37635,7 @@
         <v>5845</v>
       </c>
     </row>
-    <row r="113" spans="1:118">
+    <row r="113" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>42124</v>
       </c>
@@ -37976,7 +37989,7 @@
         <v>7721</v>
       </c>
     </row>
-    <row r="114" spans="1:118">
+    <row r="114" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>42155</v>
       </c>
@@ -38330,7 +38343,7 @@
         <v>9620</v>
       </c>
     </row>
-    <row r="115" spans="1:118">
+    <row r="115" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>42185</v>
       </c>
@@ -38684,7 +38697,7 @@
         <v>11411</v>
       </c>
     </row>
-    <row r="116" spans="1:118">
+    <row r="116" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>42216</v>
       </c>
@@ -39038,7 +39051,7 @@
         <v>13228</v>
       </c>
     </row>
-    <row r="117" spans="1:118">
+    <row r="117" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>42247</v>
       </c>
@@ -39392,7 +39405,7 @@
         <v>14936</v>
       </c>
     </row>
-    <row r="118" spans="1:118">
+    <row r="118" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>42277</v>
       </c>
@@ -39746,7 +39759,7 @@
         <v>16545</v>
       </c>
     </row>
-    <row r="119" spans="1:118">
+    <row r="119" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>42308</v>
       </c>
@@ -40100,7 +40113,7 @@
         <v>18289</v>
       </c>
     </row>
-    <row r="120" spans="1:118">
+    <row r="120" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>42338</v>
       </c>
@@ -40454,7 +40467,7 @@
         <v>19833</v>
       </c>
     </row>
-    <row r="121" spans="1:118">
+    <row r="121" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>42369</v>
       </c>
@@ -40808,7 +40821,7 @@
         <v>21482</v>
       </c>
     </row>
-    <row r="122" spans="1:118">
+    <row r="122" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>42400</v>
       </c>
@@ -40932,7 +40945,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="123" spans="1:118">
+    <row r="123" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>42429</v>
       </c>
@@ -41286,7 +41299,7 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="124" spans="1:118">
+    <row r="124" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>42460</v>
       </c>
@@ -41640,7 +41653,7 @@
         <v>5225</v>
       </c>
     </row>
-    <row r="125" spans="1:118">
+    <row r="125" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>42490</v>
       </c>
@@ -41994,7 +42007,7 @@
         <v>6945</v>
       </c>
     </row>
-    <row r="126" spans="1:118">
+    <row r="126" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>42521</v>
       </c>
@@ -42346,7 +42359,7 @@
         <v>8817</v>
       </c>
     </row>
-    <row r="127" spans="1:118">
+    <row r="127" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>42551</v>
       </c>
@@ -42698,7 +42711,7 @@
         <v>10567</v>
       </c>
     </row>
-    <row r="128" spans="1:118">
+    <row r="128" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>42582</v>
       </c>
@@ -43050,7 +43063,7 @@
         <v>12636</v>
       </c>
     </row>
-    <row r="129" spans="1:118">
+    <row r="129" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>42613</v>
       </c>
@@ -43402,7 +43415,7 @@
         <v>14526</v>
       </c>
     </row>
-    <row r="130" spans="1:118">
+    <row r="130" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>42643</v>
       </c>
@@ -43754,7 +43767,7 @@
         <v>16267</v>
       </c>
     </row>
-    <row r="131" spans="1:118">
+    <row r="131" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>42674</v>
       </c>
@@ -44106,7 +44119,7 @@
         <v>18100</v>
       </c>
     </row>
-    <row r="132" spans="1:118">
+    <row r="132" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>42704</v>
       </c>
@@ -44458,7 +44471,7 @@
         <v>19745</v>
       </c>
     </row>
-    <row r="133" spans="1:118">
+    <row r="133" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>42735</v>
       </c>
@@ -44810,7 +44823,7 @@
         <v>21570</v>
       </c>
     </row>
-    <row r="134" spans="1:118">
+    <row r="134" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>42766</v>
       </c>
@@ -44934,7 +44947,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="135" spans="1:118">
+    <row r="135" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>42794</v>
       </c>
@@ -45286,7 +45299,7 @@
         <v>3616</v>
       </c>
     </row>
-    <row r="136" spans="1:118">
+    <row r="136" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>42825</v>
       </c>
@@ -45638,7 +45651,7 @@
         <v>5516</v>
       </c>
     </row>
-    <row r="137" spans="1:118">
+    <row r="137" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>42855</v>
       </c>
@@ -45990,7 +46003,7 @@
         <v>7356</v>
       </c>
     </row>
-    <row r="138" spans="1:118">
+    <row r="138" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>42886</v>
       </c>
@@ -46342,7 +46355,7 @@
         <v>9256</v>
       </c>
     </row>
-    <row r="139" spans="1:118">
+    <row r="139" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>42916</v>
       </c>
@@ -46694,7 +46707,7 @@
         <v>11598</v>
       </c>
     </row>
-    <row r="140" spans="1:118">
+    <row r="140" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>42947</v>
       </c>
@@ -47048,7 +47061,7 @@
         <v>13558</v>
       </c>
     </row>
-    <row r="141" spans="1:118">
+    <row r="141" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>42978</v>
       </c>
@@ -47402,7 +47415,7 @@
         <v>15518</v>
       </c>
     </row>
-    <row r="142" spans="1:118">
+    <row r="142" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43008</v>
       </c>
@@ -47756,7 +47769,7 @@
         <v>17418</v>
       </c>
     </row>
-    <row r="143" spans="1:118">
+    <row r="143" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43039</v>
       </c>
@@ -48110,7 +48123,7 @@
         <v>19383</v>
       </c>
     </row>
-    <row r="144" spans="1:118">
+    <row r="144" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43069</v>
       </c>
@@ -48464,7 +48477,7 @@
         <v>21283</v>
       </c>
     </row>
-    <row r="145" spans="1:118">
+    <row r="145" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43100</v>
       </c>
@@ -48818,7 +48831,7 @@
         <v>22438</v>
       </c>
     </row>
-    <row r="146" spans="1:118">
+    <row r="146" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43131</v>
       </c>
@@ -48942,7 +48955,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="147" spans="1:118">
+    <row r="147" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43159</v>
       </c>
@@ -49296,7 +49309,7 @@
         <v>3303</v>
       </c>
     </row>
-    <row r="148" spans="1:118">
+    <row r="148" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43190</v>
       </c>
@@ -49650,7 +49663,7 @@
         <v>5334</v>
       </c>
     </row>
-    <row r="149" spans="1:118">
+    <row r="149" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43220</v>
       </c>
@@ -50004,7 +50017,7 @@
         <v>7365</v>
       </c>
     </row>
-    <row r="150" spans="1:118">
+    <row r="150" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43251</v>
       </c>
@@ -50358,7 +50371,7 @@
         <v>9459</v>
       </c>
     </row>
-    <row r="151" spans="1:118">
+    <row r="151" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43281</v>
       </c>
@@ -50712,7 +50725,7 @@
         <v>11425</v>
       </c>
     </row>
-    <row r="152" spans="1:118">
+    <row r="152" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43312</v>
       </c>
@@ -51066,7 +51079,7 @@
         <v>13401</v>
       </c>
     </row>
-    <row r="153" spans="1:118">
+    <row r="153" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43343</v>
       </c>
@@ -51420,7 +51433,7 @@
         <v>15351</v>
       </c>
     </row>
-    <row r="154" spans="1:118">
+    <row r="154" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43373</v>
       </c>
@@ -51774,7 +51787,7 @@
         <v>17219</v>
       </c>
     </row>
-    <row r="155" spans="1:118">
+    <row r="155" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43404</v>
       </c>
@@ -52128,7 +52141,7 @@
         <v>19241</v>
       </c>
     </row>
-    <row r="156" spans="1:118">
+    <row r="156" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43434</v>
       </c>
@@ -52482,7 +52495,7 @@
         <v>21202</v>
       </c>
     </row>
-    <row r="157" spans="1:118">
+    <row r="157" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43465</v>
       </c>
@@ -52836,7 +52849,7 @@
         <v>23240</v>
       </c>
     </row>
-    <row r="158" spans="1:118">
+    <row r="158" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43496</v>
       </c>
@@ -52960,7 +52973,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="159" spans="1:118">
+    <row r="159" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43524</v>
       </c>
@@ -53312,7 +53325,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="160" spans="1:118">
+    <row r="160" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43555</v>
       </c>
@@ -53664,7 +53677,7 @@
         <v>5705</v>
       </c>
     </row>
-    <row r="161" spans="1:118">
+    <row r="161" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43585</v>
       </c>
@@ -54016,7 +54029,7 @@
         <v>7676</v>
       </c>
     </row>
-    <row r="162" spans="1:118">
+    <row r="162" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43616</v>
       </c>
@@ -54368,7 +54381,7 @@
         <v>9610</v>
       </c>
     </row>
-    <row r="163" spans="1:118">
+    <row r="163" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43646</v>
       </c>
@@ -54720,7 +54733,7 @@
         <v>11418</v>
       </c>
     </row>
-    <row r="164" spans="1:118">
+    <row r="164" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43677</v>
       </c>
@@ -55072,7 +55085,7 @@
         <v>13296</v>
       </c>
     </row>
-    <row r="165" spans="1:118">
+    <row r="165" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43708</v>
       </c>
@@ -55424,7 +55437,7 @@
         <v>15151</v>
       </c>
     </row>
-    <row r="166" spans="1:118">
+    <row r="166" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43738</v>
       </c>
@@ -55780,7 +55793,7 @@
         <v>16897</v>
       </c>
     </row>
-    <row r="167" spans="1:118">
+    <row r="167" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43769</v>
       </c>
@@ -56132,7 +56145,7 @@
         <v>18611</v>
       </c>
     </row>
-    <row r="168" spans="1:118">
+    <row r="168" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43799</v>
       </c>
@@ -56484,7 +56497,7 @@
         <v>20261</v>
       </c>
     </row>
-    <row r="169" spans="1:118">
+    <row r="169" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43830</v>
       </c>
@@ -56836,7 +56849,7 @@
         <v>21954</v>
       </c>
     </row>
-    <row r="170" spans="1:118">
+    <row r="170" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43861</v>
       </c>
@@ -56960,7 +56973,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="171" spans="1:118">
+    <row r="171" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43890</v>
       </c>
@@ -57308,7 +57321,7 @@
         <v>3290</v>
       </c>
     </row>
-    <row r="172" spans="1:118">
+    <row r="172" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43921</v>
       </c>
@@ -57658,7 +57671,7 @@
         <v>4870</v>
       </c>
     </row>
-    <row r="173" spans="1:118">
+    <row r="173" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43951</v>
       </c>
@@ -58008,7 +58021,7 @@
         <v>6966</v>
       </c>
     </row>
-    <row r="174" spans="1:118">
+    <row r="174" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43982</v>
       </c>
@@ -58358,7 +58371,7 @@
         <v>8696</v>
       </c>
     </row>
-    <row r="175" spans="1:118">
+    <row r="175" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>44012</v>
       </c>
@@ -58708,7 +58721,7 @@
         <v>10719</v>
       </c>
     </row>
-    <row r="176" spans="1:118">
+    <row r="176" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>44043</v>
       </c>
@@ -59058,7 +59071,7 @@
         <v>12465</v>
       </c>
     </row>
-    <row r="177" spans="1:118">
+    <row r="177" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>44074</v>
       </c>
@@ -59408,7 +59421,7 @@
         <v>13980</v>
       </c>
     </row>
-    <row r="178" spans="1:118">
+    <row r="178" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>44104</v>
       </c>
@@ -59758,7 +59771,7 @@
         <v>15665</v>
       </c>
     </row>
-    <row r="179" spans="1:118">
+    <row r="179" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>44135</v>
       </c>
@@ -60108,7 +60121,7 @@
         <v>17325</v>
       </c>
     </row>
-    <row r="180" spans="1:118">
+    <row r="180" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>44165</v>
       </c>
@@ -60458,7 +60471,7 @@
         <v>18749</v>
       </c>
     </row>
-    <row r="181" spans="1:118">
+    <row r="181" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>44196</v>
       </c>
@@ -60808,7 +60821,7 @@
         <v>20570</v>
       </c>
     </row>
-    <row r="182" spans="1:118">
+    <row r="182" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>44255</v>
       </c>
@@ -61162,7 +61175,7 @@
       </c>
       <c r="DN182" s="3"/>
     </row>
-    <row r="183" spans="1:118">
+    <row r="183" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>44286</v>
       </c>
@@ -61510,7 +61523,7 @@
       </c>
       <c r="DN183" s="3"/>
     </row>
-    <row r="184" spans="1:118">
+    <row r="184" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>44316</v>
       </c>
@@ -61858,7 +61871,7 @@
       </c>
       <c r="DN184" s="3"/>
     </row>
-    <row r="185" spans="1:118">
+    <row r="185" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>44347</v>
       </c>
@@ -62206,7 +62219,7 @@
       </c>
       <c r="DN185" s="3"/>
     </row>
-    <row r="186" spans="1:118">
+    <row r="186" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>44377</v>
       </c>
@@ -62554,7 +62567,7 @@
       </c>
       <c r="DN186" s="3"/>
     </row>
-    <row r="187" spans="1:118">
+    <row r="187" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>44408</v>
       </c>
@@ -62902,7 +62915,7 @@
       </c>
       <c r="DN187" s="3"/>
     </row>
-    <row r="188" spans="1:118">
+    <row r="188" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>44439</v>
       </c>
@@ -63250,7 +63263,7 @@
       </c>
       <c r="DN188" s="3"/>
     </row>
-    <row r="189" spans="1:118">
+    <row r="189" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>44469</v>
       </c>
@@ -63598,7 +63611,7 @@
       </c>
       <c r="DN189" s="3"/>
     </row>
-    <row r="190" spans="1:118">
+    <row r="190" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>44500</v>
       </c>
@@ -63946,7 +63959,7 @@
       </c>
       <c r="DN190" s="3"/>
     </row>
-    <row r="191" spans="1:118">
+    <row r="191" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>44530</v>
       </c>
@@ -64294,7 +64307,7 @@
       </c>
       <c r="DN191" s="3"/>
     </row>
-    <row r="192" spans="1:118">
+    <row r="192" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>44561</v>
       </c>
@@ -64642,7 +64655,7 @@
       </c>
       <c r="DN192" s="3"/>
     </row>
-    <row r="193" spans="1:118">
+    <row r="193" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>44620</v>
       </c>
@@ -64990,7 +65003,7 @@
       </c>
       <c r="DN193" s="3"/>
     </row>
-    <row r="194" spans="1:118">
+    <row r="194" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>44651</v>
       </c>
@@ -65338,7 +65351,7 @@
       </c>
       <c r="DN194" s="3"/>
     </row>
-    <row r="195" spans="1:118">
+    <row r="195" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>44681</v>
       </c>
@@ -65686,7 +65699,7 @@
       </c>
       <c r="DN195" s="3"/>
     </row>
-    <row r="196" spans="1:118">
+    <row r="196" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>44712</v>
       </c>
@@ -66034,7 +66047,7 @@
       </c>
       <c r="DN196" s="3"/>
     </row>
-    <row r="197" spans="1:118">
+    <row r="197" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>44742</v>
       </c>
@@ -66382,7 +66395,7 @@
       </c>
       <c r="DN197" s="3"/>
     </row>
-    <row r="198" spans="1:118">
+    <row r="198" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>44773</v>
       </c>
@@ -66736,7 +66749,7 @@
       </c>
       <c r="DN198" s="3"/>
     </row>
-    <row r="199" spans="1:118">
+    <row r="199" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>44804</v>
       </c>
@@ -67084,7 +67097,7 @@
       </c>
       <c r="DN199" s="3"/>
     </row>
-    <row r="200" spans="1:118">
+    <row r="200" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>44834</v>
       </c>
@@ -67432,7 +67445,7 @@
       </c>
       <c r="DN200" s="3"/>
     </row>
-    <row r="201" spans="1:118">
+    <row r="201" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>44865</v>
       </c>
@@ -67780,7 +67793,7 @@
       </c>
       <c r="DN201" s="3"/>
     </row>
-    <row r="202" spans="1:118">
+    <row r="202" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>44895</v>
       </c>
@@ -68128,7 +68141,7 @@
       </c>
       <c r="DN202" s="3"/>
     </row>
-    <row r="203" spans="1:118">
+    <row r="203" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>44926</v>
       </c>
@@ -68476,7 +68489,7 @@
       </c>
       <c r="DN203" s="3"/>
     </row>
-    <row r="204" spans="1:118">
+    <row r="204" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>44985</v>
       </c>
@@ -68824,7 +68837,7 @@
       </c>
       <c r="DN204" s="3"/>
     </row>
-    <row r="205" spans="1:118">
+    <row r="205" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>45016</v>
       </c>
@@ -69172,7 +69185,7 @@
       </c>
       <c r="DN205" s="3"/>
     </row>
-    <row r="206" spans="1:118">
+    <row r="206" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>45046</v>
       </c>
@@ -69520,7 +69533,7 @@
       </c>
       <c r="DN206" s="3"/>
     </row>
-    <row r="207" spans="1:118">
+    <row r="207" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>45077</v>
       </c>
@@ -69866,7 +69879,7 @@
       </c>
       <c r="DN207" s="3"/>
     </row>
-    <row r="208" spans="1:118">
+    <row r="208" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>45107</v>
       </c>
@@ -70214,7 +70227,7 @@
       </c>
       <c r="DN208" s="3"/>
     </row>
-    <row r="209" spans="1:118">
+    <row r="209" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>45138</v>
       </c>
@@ -70562,7 +70575,7 @@
       </c>
       <c r="DN209" s="3"/>
     </row>
-    <row r="210" spans="1:118">
+    <row r="210" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>45169</v>
       </c>
@@ -70910,7 +70923,7 @@
       </c>
       <c r="DN210" s="3"/>
     </row>
-    <row r="211" spans="1:118">
+    <row r="211" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>45199</v>
       </c>
@@ -71258,7 +71271,7 @@
       </c>
       <c r="DN211" s="3"/>
     </row>
-    <row r="212" spans="1:118">
+    <row r="212" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>45230</v>
       </c>
@@ -71606,7 +71619,7 @@
       </c>
       <c r="DN212" s="3"/>
     </row>
-    <row r="213" spans="1:118">
+    <row r="213" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>45260</v>
       </c>
@@ -71954,7 +71967,7 @@
       </c>
       <c r="DN213" s="3"/>
     </row>
-    <row r="214" spans="1:118">
+    <row r="214" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>45291</v>
       </c>
@@ -72302,7 +72315,7 @@
       </c>
       <c r="DN214" s="3"/>
     </row>
-    <row r="215" spans="1:118">
+    <row r="215" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>45351</v>
       </c>
@@ -72650,7 +72663,7 @@
       </c>
       <c r="DN215" s="3"/>
     </row>
-    <row r="216" spans="1:118">
+    <row r="216" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>45382</v>
       </c>
@@ -73000,7 +73013,7 @@
       </c>
       <c r="DN216" s="3"/>
     </row>
-    <row r="217" spans="1:118">
+    <row r="217" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>45412</v>
       </c>
@@ -73350,7 +73363,7 @@
       </c>
       <c r="DN217" s="3"/>
     </row>
-    <row r="218" spans="1:118">
+    <row r="218" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>45443</v>
       </c>
@@ -73700,7 +73713,7 @@
       </c>
       <c r="DN218" s="3"/>
     </row>
-    <row r="219" spans="1:118">
+    <row r="219" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>45473</v>
       </c>
@@ -74048,7 +74061,7 @@
       </c>
       <c r="DN219" s="3"/>
     </row>
-    <row r="220" spans="1:118">
+    <row r="220" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>45504</v>
       </c>
@@ -74396,7 +74409,7 @@
       </c>
       <c r="DN220" s="3"/>
     </row>
-    <row r="221" spans="1:118">
+    <row r="221" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>45535</v>
       </c>
@@ -74744,7 +74757,7 @@
       </c>
       <c r="DN221" s="3"/>
     </row>
-    <row r="222" spans="1:118">
+    <row r="222" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>45565</v>
       </c>
@@ -75092,7 +75105,7 @@
       </c>
       <c r="DN222" s="3"/>
     </row>
-    <row r="223" spans="1:118">
+    <row r="223" spans="1:118" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>45596</v>
       </c>
@@ -75440,7 +75453,7 @@
       </c>
       <c r="DN223" s="3"/>
     </row>
-    <row r="225" spans="1:1" ht="15">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="4" t="s">
         <v>196</v>
       </c>

--- a/inst/extdata/iron&steel output by province.xlsx
+++ b/inst/extdata/iron&steel output by province.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2C69EEB-7D5E-45B5-871A-4044669C0DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1A527-1F16-45D2-8602-452892D16746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Anhui_Output_Pig Iron_YTD" sheetId="1" r:id="rId1"/>
@@ -1070,23 +1070,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DN225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="DA1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118" ht="15">
+    <row r="1" spans="1:118">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -73611,7 +73613,7 @@
         <v>603.02</v>
       </c>
       <c r="CF205" s="3">
-        <v>747.62</v>
+        <v>743.62</v>
       </c>
       <c r="CG205" s="3">
         <v>134.28</v>

--- a/inst/extdata/iron&steel output by province.xlsx
+++ b/inst/extdata/iron&steel output by province.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A1A527-1F16-45D2-8602-452892D16746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8EF10-41FE-44DF-8E63-61F0244D3871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="2640" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Anhui_Output_Pig Iron_YTD" sheetId="1" r:id="rId1"/>
@@ -1074,21 +1074,21 @@
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:118">
+    <row r="1" spans="1:118" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>

--- a/inst/extdata/iron&steel output by province.xlsx
+++ b/inst/extdata/iron&steel output by province.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF8EF10-41FE-44DF-8E63-61F0244D3871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A57F90-F50C-4059-B16C-6FE945203E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,13 +641,13 @@
     <t>2024-06-18</t>
   </si>
   <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
     <t>2022-08-18</t>
   </si>
   <si>
     <t>2023-08-24</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:DN225"/>
+  <dimension ref="A1:DN226"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="DA1" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
@@ -3481,7 +3481,7 @@
         <v>192</v>
       </c>
       <c r="CF8" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="CG8" s="5" t="s">
         <v>192</v>
@@ -3496,7 +3496,7 @@
         <v>192</v>
       </c>
       <c r="CK8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="CL8" s="5" t="s">
         <v>192</v>
@@ -3517,7 +3517,7 @@
         <v>192</v>
       </c>
       <c r="CR8" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="CS8" s="5" t="s">
         <v>192</v>
@@ -3583,7 +3583,7 @@
         <v>192</v>
       </c>
       <c r="DN8" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:118">
@@ -80835,6 +80835,362 @@
         <v>1288.93</v>
       </c>
       <c r="DN225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:118">
+      <c r="A226" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B226" s="3">
+        <v>0</v>
+      </c>
+      <c r="C226" s="3">
+        <v>0</v>
+      </c>
+      <c r="D226" s="3">
+        <v>0</v>
+      </c>
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+      <c r="F226" s="3">
+        <v>0</v>
+      </c>
+      <c r="G226" s="3">
+        <v>0</v>
+      </c>
+      <c r="H226" s="3">
+        <v>0</v>
+      </c>
+      <c r="I226" s="3">
+        <v>0</v>
+      </c>
+      <c r="J226" s="3">
+        <v>0</v>
+      </c>
+      <c r="K226" s="3">
+        <v>0</v>
+      </c>
+      <c r="L226" s="3">
+        <v>0</v>
+      </c>
+      <c r="M226" s="3">
+        <v>0</v>
+      </c>
+      <c r="N226" s="3">
+        <v>0</v>
+      </c>
+      <c r="O226" s="3">
+        <v>0</v>
+      </c>
+      <c r="P226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q226" s="3">
+        <v>0</v>
+      </c>
+      <c r="R226" s="3">
+        <v>0</v>
+      </c>
+      <c r="S226" s="3">
+        <v>0</v>
+      </c>
+      <c r="T226" s="3">
+        <v>0</v>
+      </c>
+      <c r="U226" s="3">
+        <v>0</v>
+      </c>
+      <c r="V226" s="3">
+        <v>0</v>
+      </c>
+      <c r="W226" s="3">
+        <v>0</v>
+      </c>
+      <c r="X226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y226" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AV226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AX226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AY226" s="3">
+        <v>0</v>
+      </c>
+      <c r="AZ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BA226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BB226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BF226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BG226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BL226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BO226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BP226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BQ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BS226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BU226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BV226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BW226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BX226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BY226" s="3">
+        <v>0</v>
+      </c>
+      <c r="BZ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CA226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CB226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CF226" s="3">
+        <v>5997.25</v>
+      </c>
+      <c r="CG226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CL226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CN226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CO226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CP226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CQ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CR226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CS226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CT226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CU226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CV226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CW226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CX226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CY226" s="3">
+        <v>0</v>
+      </c>
+      <c r="CZ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DA226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DB226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DC226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DD226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DE226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DF226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DG226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DH226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DI226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DJ226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DK226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DL226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DM226" s="3">
+        <v>0</v>
+      </c>
+      <c r="DN226" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/iron&steel output by province.xlsx
+++ b/inst/extdata/iron&steel output by province.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A57F90-F50C-4059-B16C-6FE945203E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E3D5973-4AFA-4553-AF0C-EDB0122E212F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,9 +635,6 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-12-18</t>
-  </si>
-  <si>
     <t>2024-06-18</t>
   </si>
   <si>
@@ -648,6 +645,9 @@
   </si>
   <si>
     <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2025-01-23</t>
   </si>
 </sst>
 </file>
@@ -3235,355 +3235,355 @@
         <v>191</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="R8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="W8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="X8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AB8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AC8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AF8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AR8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AS8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AW8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AX8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AZ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BA8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BB8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BC8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BD8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BF8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BH8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BI8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BJ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BK8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BL8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BM8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BN8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="S8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="T8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="U8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AB8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AD8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AE8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AF8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AH8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AI8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AK8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AM8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AN8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AO8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AP8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AQ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AR8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AS8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AT8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AU8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AV8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AW8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AX8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AY8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="AZ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BA8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BB8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BC8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BD8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BE8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BF8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BG8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BH8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BI8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BJ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BK8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BL8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BM8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BN8" s="5" t="s">
+      <c r="BO8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BP8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BQ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BR8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BS8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BT8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BU8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BV8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BW8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BX8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BY8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="BZ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CA8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CB8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CC8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CD8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CE8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CF8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="CG8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CH8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CI8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CJ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CK8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="BO8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BP8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BQ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BR8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BS8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BT8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BU8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BV8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BW8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BX8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BY8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="BZ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CA8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CB8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CC8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CD8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CE8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CF8" s="5" t="s">
+      <c r="CL8" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="CG8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CH8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CI8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CJ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CK8" s="5" t="s">
+      <c r="CM8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CN8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CO8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CP8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CQ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CR8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="CS8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CT8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CU8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CV8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CW8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CX8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CY8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="CZ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DA8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DB8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DC8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DD8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DE8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DF8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DG8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DH8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DI8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DJ8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DK8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DL8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DM8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="DN8" s="5" t="s">
         <v>194</v>
-      </c>
-      <c r="CL8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CM8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CN8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CO8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CP8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CQ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CR8" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="CS8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CT8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CU8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CV8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CW8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CX8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CY8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="CZ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DA8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DB8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DC8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DD8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DE8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DF8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DG8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DH8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DI8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DJ8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DK8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DL8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DM8" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="DN8" s="5" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:118">
@@ -80843,352 +80843,352 @@
         <v>45657</v>
       </c>
       <c r="B226" s="3">
-        <v>0</v>
+        <v>3005.14</v>
       </c>
       <c r="C226" s="3">
-        <v>0</v>
+        <v>676.8</v>
       </c>
       <c r="D226" s="3">
-        <v>0</v>
+        <v>1517.87</v>
       </c>
       <c r="E226" s="3">
-        <v>0</v>
+        <v>784.59</v>
       </c>
       <c r="F226" s="3">
-        <v>0</v>
+        <v>2345.16</v>
       </c>
       <c r="G226" s="3">
-        <v>0</v>
+        <v>3862.57</v>
       </c>
       <c r="H226" s="3">
-        <v>0</v>
+        <v>377.21</v>
       </c>
       <c r="I226" s="3">
-        <v>0</v>
+        <v>19412.71</v>
       </c>
       <c r="J226" s="3">
-        <v>0</v>
+        <v>849.76</v>
       </c>
       <c r="K226" s="3">
-        <v>0</v>
+        <v>2496.69</v>
       </c>
       <c r="L226" s="3">
-        <v>0</v>
+        <v>2860.12</v>
       </c>
       <c r="M226" s="3">
-        <v>0</v>
+        <v>2093.11</v>
       </c>
       <c r="N226" s="3">
-        <v>0</v>
+        <v>2150.21</v>
       </c>
       <c r="O226" s="3">
-        <v>0</v>
+        <v>9539.69</v>
       </c>
       <c r="P226" s="3">
-        <v>0</v>
+        <v>2418.9899999999998</v>
       </c>
       <c r="Q226" s="3">
-        <v>0</v>
+        <v>1245.97</v>
       </c>
       <c r="R226" s="3">
-        <v>0</v>
+        <v>6615.19</v>
       </c>
       <c r="S226" s="3">
-        <v>0</v>
+        <v>144.97</v>
       </c>
       <c r="T226" s="3">
-        <v>0</v>
+        <v>127.68</v>
       </c>
       <c r="U226" s="3">
-        <v>0</v>
+        <v>1074.97</v>
       </c>
       <c r="V226" s="3">
-        <v>0</v>
+        <v>7262.79</v>
       </c>
       <c r="W226" s="3">
-        <v>0</v>
+        <v>1494.59</v>
       </c>
       <c r="X226" s="3">
-        <v>0</v>
+        <v>5612.19</v>
       </c>
       <c r="Y226" s="3">
-        <v>0</v>
+        <v>2048.61</v>
       </c>
       <c r="Z226" s="3">
-        <v>0</v>
+        <v>1948.83</v>
       </c>
       <c r="AA226" s="3">
-        <v>0</v>
+        <v>1013.06</v>
       </c>
       <c r="AB226" s="3">
-        <v>0</v>
+        <v>1377.61</v>
       </c>
       <c r="AC226" s="3">
-        <v>0</v>
+        <v>816.62</v>
       </c>
       <c r="AD226" s="3">
-        <v>0</v>
+        <v>3005.14</v>
       </c>
       <c r="AE226" s="3">
-        <v>0</v>
+        <v>676.8</v>
       </c>
       <c r="AF226" s="3">
-        <v>0</v>
+        <v>1517.87</v>
       </c>
       <c r="AG226" s="3">
-        <v>0</v>
+        <v>784.59</v>
       </c>
       <c r="AH226" s="3">
-        <v>0</v>
+        <v>2345.16</v>
       </c>
       <c r="AI226" s="3">
-        <v>0</v>
+        <v>3862.57</v>
       </c>
       <c r="AJ226" s="3">
-        <v>0</v>
+        <v>377.21</v>
       </c>
       <c r="AK226" s="3">
-        <v>0</v>
+        <v>19412.71</v>
       </c>
       <c r="AL226" s="3">
-        <v>0</v>
+        <v>849.76</v>
       </c>
       <c r="AM226" s="3">
-        <v>0</v>
+        <v>2496.69</v>
       </c>
       <c r="AN226" s="3">
-        <v>0</v>
+        <v>2860.12</v>
       </c>
       <c r="AO226" s="3">
-        <v>0</v>
+        <v>2093.11</v>
       </c>
       <c r="AP226" s="3">
-        <v>0</v>
+        <v>2150.21</v>
       </c>
       <c r="AQ226" s="3">
-        <v>0</v>
+        <v>9539.69</v>
       </c>
       <c r="AR226" s="3">
-        <v>0</v>
+        <v>2418.9899999999998</v>
       </c>
       <c r="AS226" s="3">
-        <v>0</v>
+        <v>1245.97</v>
       </c>
       <c r="AT226" s="3">
-        <v>0</v>
+        <v>6615.19</v>
       </c>
       <c r="AU226" s="3">
-        <v>0</v>
+        <v>144.97</v>
       </c>
       <c r="AV226" s="3">
-        <v>0</v>
+        <v>127.68</v>
       </c>
       <c r="AW226" s="3">
-        <v>0</v>
+        <v>1074.97</v>
       </c>
       <c r="AX226" s="3">
-        <v>0</v>
+        <v>7262.79</v>
       </c>
       <c r="AY226" s="3">
-        <v>0</v>
+        <v>1494.59</v>
       </c>
       <c r="AZ226" s="3">
-        <v>0</v>
+        <v>5612.19</v>
       </c>
       <c r="BA226" s="3">
-        <v>0</v>
+        <v>2048.61</v>
       </c>
       <c r="BB226" s="3">
-        <v>0</v>
+        <v>1948.83</v>
       </c>
       <c r="BC226" s="3">
-        <v>0</v>
+        <v>1013.06</v>
       </c>
       <c r="BD226" s="3">
-        <v>0</v>
+        <v>1377.61</v>
       </c>
       <c r="BE226" s="3">
-        <v>0</v>
+        <v>816.62</v>
       </c>
       <c r="BF226" s="3">
-        <v>0</v>
+        <v>4040.42</v>
       </c>
       <c r="BG226" s="3">
-        <v>0</v>
+        <v>186.74</v>
       </c>
       <c r="BH226" s="3">
-        <v>0</v>
+        <v>1854.57</v>
       </c>
       <c r="BI226" s="3">
-        <v>0</v>
+        <v>5090.4399999999996</v>
       </c>
       <c r="BJ226" s="3">
-        <v>0</v>
+        <v>1236.77</v>
       </c>
       <c r="BK226" s="3">
-        <v>0</v>
+        <v>6294.91</v>
       </c>
       <c r="BL226" s="3">
-        <v>0</v>
+        <v>5590.86</v>
       </c>
       <c r="BM226" s="3">
-        <v>0</v>
+        <v>587.24</v>
       </c>
       <c r="BN226" s="3">
         <v>0</v>
       </c>
       <c r="BO226" s="3">
-        <v>0</v>
+        <v>32087.65</v>
       </c>
       <c r="BP226" s="3">
-        <v>0</v>
+        <v>877.72</v>
       </c>
       <c r="BQ226" s="3">
-        <v>0</v>
+        <v>3105.76</v>
       </c>
       <c r="BR226" s="3">
-        <v>0</v>
+        <v>3646.62</v>
       </c>
       <c r="BS226" s="3">
-        <v>0</v>
+        <v>3066.78</v>
       </c>
       <c r="BT226" s="3">
-        <v>0</v>
+        <v>3442.39</v>
       </c>
       <c r="BU226" s="3">
-        <v>0</v>
+        <v>16757.2</v>
       </c>
       <c r="BV226" s="3">
-        <v>0</v>
+        <v>3718.44</v>
       </c>
       <c r="BW226" s="3">
-        <v>0</v>
+        <v>1492.37</v>
       </c>
       <c r="BX226" s="3">
-        <v>0</v>
+        <v>7589.6</v>
       </c>
       <c r="BY226" s="3">
-        <v>0</v>
+        <v>541.77</v>
       </c>
       <c r="BZ226" s="3">
-        <v>0</v>
+        <v>136.41</v>
       </c>
       <c r="CA226" s="3">
-        <v>0</v>
+        <v>1514.32</v>
       </c>
       <c r="CB226" s="3">
-        <v>0</v>
+        <v>11415.28</v>
       </c>
       <c r="CC226" s="3">
-        <v>0</v>
+        <v>2040.78</v>
       </c>
       <c r="CD226" s="3">
-        <v>0</v>
+        <v>6892.67</v>
       </c>
       <c r="CE226" s="3">
-        <v>0</v>
+        <v>3906.89</v>
       </c>
       <c r="CF226" s="3">
         <v>5997.25</v>
       </c>
       <c r="CG226" s="3">
-        <v>0</v>
+        <v>1428.69</v>
       </c>
       <c r="CH226" s="3">
-        <v>0</v>
+        <v>2276.06</v>
       </c>
       <c r="CI226" s="3">
-        <v>0</v>
+        <v>3150.82</v>
       </c>
       <c r="CJ226" s="3">
-        <v>0</v>
+        <v>3773.27</v>
       </c>
       <c r="CK226" s="3">
         <v>0</v>
       </c>
       <c r="CL226" s="3">
-        <v>0</v>
+        <v>929.31</v>
       </c>
       <c r="CM226" s="3">
-        <v>0</v>
+        <v>3754.56</v>
       </c>
       <c r="CN226" s="3">
-        <v>0</v>
+        <v>1131.54</v>
       </c>
       <c r="CO226" s="3">
-        <v>0</v>
+        <v>4043.37</v>
       </c>
       <c r="CP226" s="3">
-        <v>0</v>
+        <v>4342.82</v>
       </c>
       <c r="CQ226" s="3">
-        <v>0</v>
+        <v>537.88</v>
       </c>
       <c r="CR226" s="3">
         <v>0</v>
       </c>
       <c r="CS226" s="3">
-        <v>0</v>
+        <v>19985.759999999998</v>
       </c>
       <c r="CT226" s="3">
-        <v>0</v>
+        <v>922.91</v>
       </c>
       <c r="CU226" s="3">
-        <v>0</v>
+        <v>2762.11</v>
       </c>
       <c r="CV226" s="3">
-        <v>0</v>
+        <v>3470.62</v>
       </c>
       <c r="CW226" s="3">
-        <v>0</v>
+        <v>2387.29</v>
       </c>
       <c r="CX226" s="3">
-        <v>0</v>
+        <v>3223.66</v>
       </c>
       <c r="CY226" s="3">
-        <v>0</v>
+        <v>11917.86</v>
       </c>
       <c r="CZ226" s="3">
-        <v>0</v>
+        <v>2646.43</v>
       </c>
       <c r="DA226" s="3">
-        <v>0</v>
+        <v>1394.77</v>
       </c>
       <c r="DB226" s="3">
-        <v>0</v>
+        <v>7068.2</v>
       </c>
       <c r="DC226" s="3">
-        <v>0</v>
+        <v>581.15</v>
       </c>
       <c r="DD226" s="3">
-        <v>0</v>
+        <v>139.69</v>
       </c>
       <c r="DE226" s="3">
-        <v>0</v>
+        <v>1326.57</v>
       </c>
       <c r="DF226" s="3">
-        <v>0</v>
+        <v>7272.8</v>
       </c>
       <c r="DG226" s="3">
-        <v>0</v>
+        <v>1603.69</v>
       </c>
       <c r="DH226" s="3">
-        <v>0</v>
+        <v>6027.9</v>
       </c>
       <c r="DI226" s="3">
-        <v>0</v>
+        <v>2832.29</v>
       </c>
       <c r="DJ226" s="3">
-        <v>0</v>
+        <v>1632.39</v>
       </c>
       <c r="DK226" s="3">
-        <v>0</v>
+        <v>1290.45</v>
       </c>
       <c r="DL226" s="3">
-        <v>0</v>
+        <v>2094.4699999999998</v>
       </c>
       <c r="DM226" s="3">
-        <v>0</v>
+        <v>1415.37</v>
       </c>
       <c r="DN226" s="3">
         <v>0</v>
